--- a/数据.xlsx
+++ b/数据.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="农业" sheetId="1" r:id="rId1"/>
     <sheet name="畜牧业" sheetId="2" r:id="rId2"/>
-    <sheet name="工业" sheetId="3" r:id="rId3"/>
+    <sheet name="工厂" sheetId="3" r:id="rId3"/>
     <sheet name="海岛" sheetId="4" r:id="rId4"/>
     <sheet name="道具" sheetId="5" r:id="rId5"/>
     <sheet name="金属" sheetId="6" r:id="rId6"/>
     <sheet name="居民区" sheetId="7" r:id="rId7"/>
-    <sheet name="商业区" sheetId="8" r:id="rId8"/>
+    <sheet name="社区建筑" sheetId="8" r:id="rId8"/>
     <sheet name="市政" sheetId="9" r:id="rId9"/>
     <sheet name="动物" sheetId="10" r:id="rId10"/>
     <sheet name="动物建筑" sheetId="11" r:id="rId11"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
   <si>
     <t>物种</t>
     <rPh sb="0" eb="1">
@@ -185,6 +185,1020 @@
     <t>咖啡树</t>
     <rPh sb="0" eb="1">
       <t>ka'fei'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="1">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
+    <rPh sb="0" eb="1">
+      <t>ren'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <rPh sb="0" eb="1">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科德角式小屋</t>
+    <rPh sb="0" eb="1">
+      <t>ke'de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧人小舍</t>
+    <rPh sb="0" eb="1">
+      <t>mu'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海螺屋</t>
+    <rPh sb="0" eb="1">
+      <t>hai'luo'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别墅</t>
+    <rPh sb="0" eb="1">
+      <t>bie'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农舍</t>
+    <rPh sb="0" eb="1">
+      <t>nong'she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角顶小屋</t>
+    <rPh sb="3" eb="4">
+      <t>xiao'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折顶式小屋</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匠心小栋</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层楼房</t>
+    <rPh sb="0" eb="1">
+      <t>shuang'ceng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lou'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式四角楼</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'jiao'lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一厅一室房</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ting'yi'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复式公寓</t>
+    <rPh sb="0" eb="1">
+      <t>fu'shi'gong'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联排别墅</t>
+    <rPh sb="0" eb="1">
+      <t>lian'pai'bie'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维多利亚联排别墅</t>
+    <rPh sb="0" eb="1">
+      <t>wei'duo'li'ya</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lian'pai'bie'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公园式公寓</t>
+    <rPh sb="0" eb="1">
+      <t>gong'yuan'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共管公寓</t>
+    <rPh sb="0" eb="1">
+      <t>gong'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公寓大楼</t>
+    <rPh sb="0" eb="1">
+      <t>gong'yu'da'lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合租房</t>
+    <rPh sb="0" eb="1">
+      <t>he'zu'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带花园的高层</t>
+    <rPh sb="0" eb="1">
+      <t>dai'hua'yuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gao'ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通高层</t>
+    <rPh sb="0" eb="1">
+      <t>pu'tong'gao'ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带楼阁的高层建筑</t>
+    <rPh sb="0" eb="1">
+      <t>dai'lou'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gao'ceng'jian'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明屋</t>
+    <rPh sb="0" eb="1">
+      <t>guang'ming'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖高层</t>
+    <rPh sb="0" eb="1">
+      <t>ci'zhuan'gao'ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆木小屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩登高层</t>
+    <rPh sb="0" eb="1">
+      <t>mo'deng'gao'ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老房屋</t>
+    <rPh sb="0" eb="1">
+      <t>lao'fang'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原木屋</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'mu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双尖塔楼</t>
+    <rPh sb="0" eb="1">
+      <t>shuang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ta'lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商住综合楼</t>
+    <rPh sb="0" eb="1">
+      <t>shang'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'he'lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独户住房</t>
+    <rPh sb="2" eb="3">
+      <t>zhu'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货铺</t>
+    <rPh sb="0" eb="1">
+      <t>za'huo'pu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <rPh sb="0" eb="1">
+      <t>yi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察局</t>
+    <rPh sb="0" eb="1">
+      <t>jing'cha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防局</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'fang'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮局</t>
+    <rPh sb="0" eb="1">
+      <t>you'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自助洗衣店</t>
+    <rPh sb="0" eb="1">
+      <t>zi'zhu'xi'yi'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影院</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ying'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡厅</t>
+    <rPh sb="0" eb="1">
+      <t>ka'fei'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美发沙龙</t>
+    <rPh sb="0" eb="1">
+      <t>mei'fa'sha'long</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披萨店</t>
+    <rPh sb="0" eb="1">
+      <t>pi'sa'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结婚礼堂</t>
+    <rPh sb="0" eb="1">
+      <t>jie'hun'li'tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐器行</t>
+    <rPh sb="0" eb="1">
+      <t>yue'qi'hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保龄球</t>
+    <rPh sb="0" eb="1">
+      <t>bao'ling'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具店</t>
+    <rPh sb="0" eb="1">
+      <t>wan'ju'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照相馆</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'xiang'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象台</t>
+    <rPh sb="0" eb="1">
+      <t>qi'xiang'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆</t>
+    <rPh sb="0" eb="1">
+      <t>tu'shu'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学</t>
+    <rPh sb="0" eb="1">
+      <t>da'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧院</t>
+    <rPh sb="0" eb="1">
+      <t>ju'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术馆</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马戏团</t>
+    <rPh sb="0" eb="1">
+      <t>ma'xi'tuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车场</t>
+    <rPh sb="0" eb="1">
+      <t>ting'che'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <rPh sb="0" eb="1">
+      <t>jia'you'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租车公司</t>
+    <rPh sb="0" eb="1">
+      <t>chu'zu'che'gong'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车餐厅</t>
+    <rPh sb="0" eb="1">
+      <t>qi'che'can'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写字楼</t>
+    <rPh sb="0" eb="1">
+      <t>xie'zi'lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾馆</t>
+    <rPh sb="0" eb="1">
+      <t>bin'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视台</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视塔</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩天轮</t>
+    <rPh sb="0" eb="1">
+      <t>mo'tian'lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过山车</t>
+    <rPh sb="0" eb="1">
+      <t>guo'shan'che</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育场</t>
+    <rPh sb="0" eb="1">
+      <t>ti'yu'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物店</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象站</t>
+    <rPh sb="0" eb="1">
+      <t>qi'xiang'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高空跳伞学校</t>
+    <rPh sb="0" eb="1">
+      <t>gao'kong'tiao'san'xue'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画书店</t>
+    <rPh sb="0" eb="1">
+      <t>man'hua'shu'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸巡逻队</t>
+    <rPh sb="0" eb="1">
+      <t>hai'an'xun'luo'dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市</t>
+    <rPh sb="0" eb="1">
+      <t>chao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温室</t>
+    <rPh sb="0" eb="1">
+      <t>wen'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上乐园</t>
+    <rPh sb="0" eb="1">
+      <t>shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车展</t>
+    <rPh sb="0" eb="1">
+      <t>qi'che'zhan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水力发电站</t>
+    <rPh sb="0" eb="1">
+      <t>shui'li'fa'dian'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装小屋</t>
+    <rPh sb="0" eb="1">
+      <t>shi'zhuang'xiao'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影制片厂</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ying'zhi'pian'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市法院</t>
+    <rPh sb="0" eb="1">
+      <t>shi'fa'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡丁车比赛</t>
+    <rPh sb="0" eb="1">
+      <t>ka'ding'che'bi'dai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bi'sai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身中心</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shen'zhong'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温泉疗养中心</t>
+    <rPh sb="0" eb="1">
+      <t>wen'quan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liao'yang'zhong'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高尔夫球场</t>
+    <rPh sb="0" eb="1">
+      <t>gao'er'fu'qiu'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管风琴厅</t>
+    <rPh sb="0" eb="1">
+      <t>guan'feng'qin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜甜圈店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛道</t>
+    <rPh sb="0" eb="1">
+      <t>sai'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀岩墙</t>
+    <rPh sb="0" eb="1">
+      <t>pan'yan'qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车维修店</t>
+    <rPh sb="0" eb="1">
+      <t>qi'che'wei'xiu'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天文馆</t>
+    <rPh sb="0" eb="1">
+      <t>tian'wen'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花店</t>
+    <rPh sb="0" eb="1">
+      <t>hua'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛马场</t>
+    <rPh sb="0" eb="1">
+      <t>sai'ma'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐表演场</t>
+    <rPh sb="0" eb="1">
+      <t>yin'yue'biao'yan'chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗车场</t>
+    <rPh sb="0" eb="1">
+      <t>xi'che'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海豚馆</t>
+    <rPh sb="2" eb="3">
+      <t>guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯塔</t>
+    <rPh sb="0" eb="1">
+      <t>deng'ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩天大楼</t>
+    <rPh sb="0" eb="1">
+      <t>mo'tian'da'lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车出租行</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xing'che</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园</t>
+    <rPh sb="0" eb="1">
+      <t>you'er'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬类中心</t>
+    <rPh sb="0" eb="1">
+      <t>quan'lei'zhong'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <rPh sb="0" eb="1">
+      <t>yin'hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要人口</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao'ren'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烘焙坊</t>
+    <rPh sb="0" eb="1">
+      <t>hong'bei'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饲料厂</t>
+    <rPh sb="0" eb="1">
+      <t>si'liao'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳品厂</t>
+    <rPh sb="0" eb="1">
+      <t>ru'pin'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制糖厂</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'tang'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织厂</t>
+    <rPh sb="0" eb="1">
+      <t>fang'zhi'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁缝店</t>
+    <rPh sb="0" eb="1">
+      <t>cai'feng'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快餐店</t>
+    <rPh sb="0" eb="1">
+      <t>kuai'can'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造纸厂</t>
+    <rPh sb="0" eb="1">
+      <t>zao'zhi'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰激凌厂</t>
+    <rPh sb="0" eb="1">
+      <t>bing'qi'ling</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点厂</t>
+    <rPh sb="0" eb="1">
+      <t>gao'dian'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果酱厂</t>
+    <rPh sb="0" eb="1">
+      <t>guo'jiang'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶厂</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'jiao'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑胶厂</t>
+    <rPh sb="0" eb="1">
+      <t>su'jiao'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果厂</t>
+    <rPh sb="0" eb="1">
+      <t>tang'guo'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨西哥餐厅</t>
+    <rPh sb="0" eb="1">
+      <t>mo'xi'ge'can'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具工厂</t>
+    <rPh sb="0" eb="1">
+      <t>jia'ju'gong'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋厂</t>
+    <rPh sb="0" eb="1">
+      <t>xie'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰店</t>
+    <rPh sb="0" eb="1">
+      <t>shou'shi'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲餐厅</t>
+    <rPh sb="0" eb="1">
+      <t>ya'zhou'can'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤店</t>
+    <rPh sb="0" eb="1">
+      <t>shao'kao'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香水厂</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'shui'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料厂</t>
+    <rPh sb="0" eb="1">
+      <t>yin'liao'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热狗厂</t>
+    <rPh sb="0" eb="1">
+      <t>re'gou'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡厂</t>
+    <rPh sb="0" eb="1">
+      <t>ka'fei'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒工厂</t>
+    <rPh sb="0" eb="1">
+      <t>yu'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩偶厂</t>
+    <rPh sb="0" eb="1">
+      <t>wan'ou'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨具工厂</t>
+    <rPh sb="0" eb="1">
+      <t>chu'ju'gong'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐器工厂</t>
+    <rPh sb="0" eb="1">
+      <t>yue'qi'gong'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花束工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意大利餐馆</t>
+    <rPh sb="0" eb="1">
+      <t>yi'da'li'can'guan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -816,12 +1830,376 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>4150</v>
+      </c>
+      <c r="C3">
+        <v>40000</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7">
+        <v>195</v>
+      </c>
+      <c r="C7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9">
+        <v>425</v>
+      </c>
+      <c r="C9">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10">
+        <v>570</v>
+      </c>
+      <c r="C10">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11">
+        <v>735</v>
+      </c>
+      <c r="C11">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12">
+        <v>1100</v>
+      </c>
+      <c r="C12">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13">
+        <v>1480</v>
+      </c>
+      <c r="C13">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14">
+        <v>1670</v>
+      </c>
+      <c r="C14">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15">
+        <v>2375</v>
+      </c>
+      <c r="C15">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16">
+        <v>3190</v>
+      </c>
+      <c r="C16">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <v>3950</v>
+      </c>
+      <c r="C17">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18">
+        <v>4760</v>
+      </c>
+      <c r="C18">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19">
+        <v>5465</v>
+      </c>
+      <c r="C19">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20">
+        <v>5860</v>
+      </c>
+      <c r="C20">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21">
+        <v>7500</v>
+      </c>
+      <c r="C21">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22">
+        <v>8700</v>
+      </c>
+      <c r="C22">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23">
+        <v>9480</v>
+      </c>
+      <c r="C23">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24">
+        <v>10900</v>
+      </c>
+      <c r="C24">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25">
+        <v>11300</v>
+      </c>
+      <c r="C25">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26">
+        <v>12600</v>
+      </c>
+      <c r="C26">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <v>13100</v>
+      </c>
+      <c r="C27">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28">
+        <v>13900</v>
+      </c>
+      <c r="C28">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29">
+        <v>14500</v>
+      </c>
+      <c r="C29">
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30">
+        <v>15700</v>
+      </c>
+      <c r="C30">
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31">
+        <v>17200</v>
+      </c>
+      <c r="C31">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32">
+        <v>17845</v>
+      </c>
+      <c r="C32">
+        <v>820000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -868,12 +2246,467 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>110</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>140</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>150</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>190</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>230</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>270</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>330</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29">
+        <v>380</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <v>420</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31">
+        <v>460</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>520</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>36400</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -881,12 +2714,777 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>105</v>
+      </c>
+      <c r="C20">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>110</v>
+      </c>
+      <c r="C21">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24">
+        <v>125</v>
+      </c>
+      <c r="C24">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25">
+        <v>130</v>
+      </c>
+      <c r="C25">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26">
+        <v>135</v>
+      </c>
+      <c r="C26">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27">
+        <v>140</v>
+      </c>
+      <c r="C27">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28">
+        <v>145</v>
+      </c>
+      <c r="C28">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29">
+        <v>150</v>
+      </c>
+      <c r="C29">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30">
+        <v>155</v>
+      </c>
+      <c r="C30">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <v>160</v>
+      </c>
+      <c r="C31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32">
+        <v>165</v>
+      </c>
+      <c r="C32">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33">
+        <v>170</v>
+      </c>
+      <c r="C33">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34">
+        <v>175</v>
+      </c>
+      <c r="C34">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35">
+        <v>180</v>
+      </c>
+      <c r="C35">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36">
+        <v>185</v>
+      </c>
+      <c r="C36">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37">
+        <v>190</v>
+      </c>
+      <c r="C37">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38">
+        <v>195</v>
+      </c>
+      <c r="C38">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+      <c r="C39">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40">
+        <v>205</v>
+      </c>
+      <c r="C40">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41">
+        <v>210</v>
+      </c>
+      <c r="C41">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42">
+        <v>215</v>
+      </c>
+      <c r="C42">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43">
+        <v>220</v>
+      </c>
+      <c r="C43">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44">
+        <v>230</v>
+      </c>
+      <c r="C44">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45">
+        <v>240</v>
+      </c>
+      <c r="C45">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>250</v>
+      </c>
+      <c r="C46">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47">
+        <v>260</v>
+      </c>
+      <c r="C47">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48">
+        <v>270</v>
+      </c>
+      <c r="C48">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49">
+        <v>290</v>
+      </c>
+      <c r="C49">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50">
+        <v>310</v>
+      </c>
+      <c r="C50">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51">
+        <v>330</v>
+      </c>
+      <c r="C51">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52">
+        <v>350</v>
+      </c>
+      <c r="C52">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53">
+        <v>370</v>
+      </c>
+      <c r="C53">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54">
+        <v>390</v>
+      </c>
+      <c r="C54">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55">
+        <v>410</v>
+      </c>
+      <c r="C55">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56">
+        <v>430</v>
+      </c>
+      <c r="C56">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57">
+        <v>450</v>
+      </c>
+      <c r="C57">
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58">
+        <v>470</v>
+      </c>
+      <c r="C58">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59">
+        <v>490</v>
+      </c>
+      <c r="C59">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60">
+        <v>530</v>
+      </c>
+      <c r="C60">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61">
+        <v>570</v>
+      </c>
+      <c r="C61">
+        <v>75500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62">
+        <v>610</v>
+      </c>
+      <c r="C62">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63">
+        <v>650</v>
+      </c>
+      <c r="C63">
+        <v>99500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64">
+        <v>690</v>
+      </c>
+      <c r="C64">
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65">
+        <v>730</v>
+      </c>
+      <c r="C65">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66">
+        <v>790</v>
+      </c>
+      <c r="C66">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67">
+        <v>850</v>
+      </c>
+      <c r="C67">
+        <v>148000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68">
+        <v>900</v>
+      </c>
+      <c r="C68">
+        <v>167000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69">
+        <v>980</v>
+      </c>
+      <c r="C69">
+        <v>180000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="农业" sheetId="1" r:id="rId1"/>
     <sheet name="畜牧业" sheetId="2" r:id="rId2"/>
     <sheet name="工厂" sheetId="3" r:id="rId3"/>
     <sheet name="海岛" sheetId="4" r:id="rId4"/>
-    <sheet name="道具" sheetId="5" r:id="rId5"/>
-    <sheet name="金属" sheetId="6" r:id="rId6"/>
-    <sheet name="居民区" sheetId="7" r:id="rId7"/>
-    <sheet name="社区建筑" sheetId="8" r:id="rId8"/>
-    <sheet name="市政" sheetId="9" r:id="rId9"/>
-    <sheet name="动物" sheetId="10" r:id="rId10"/>
-    <sheet name="动物建筑" sheetId="11" r:id="rId11"/>
+    <sheet name="物品" sheetId="12" r:id="rId5"/>
+    <sheet name="道具" sheetId="5" r:id="rId6"/>
+    <sheet name="金属" sheetId="6" r:id="rId7"/>
+    <sheet name="居民区" sheetId="7" r:id="rId8"/>
+    <sheet name="社区建筑" sheetId="8" r:id="rId9"/>
+    <sheet name="市政" sheetId="9" r:id="rId10"/>
+    <sheet name="动物" sheetId="10" r:id="rId11"/>
+    <sheet name="动物建筑" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="243">
   <si>
     <t>物种</t>
     <rPh sb="0" eb="1">
@@ -1200,6 +1201,621 @@
     <rPh sb="0" eb="1">
       <t>yi'da'li'can'guan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养牛场</t>
+    <rPh sb="0" eb="1">
+      <t>yang'niu'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡窝</t>
+    <rPh sb="0" eb="1">
+      <t>ji'wo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧羊场</t>
+    <rPh sb="0" eb="1">
+      <t>mu'yang'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂房</t>
+    <rPh sb="0" eb="1">
+      <t>feng'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养猪场</t>
+    <rPh sb="0" eb="1">
+      <t>yang'zhu'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂鸭器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运屋</t>
+    <rPh sb="0" eb="1">
+      <t>xing'yun'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小镇市场</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'zhen'shi'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造工坊</t>
+    <rPh sb="0" eb="1">
+      <t>duan'zao'gong'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业学院</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ye'xue'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜6银2</t>
+    <rPh sb="0" eb="1">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央博物馆</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'yang'bo'wu'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸币厂</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'bi'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果岛</t>
+    <rPh sb="0" eb="1">
+      <t>shui'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄桃</t>
+    <rPh sb="0" eb="1">
+      <t>huang'tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <rPh sb="0" eb="1">
+      <t>xi'gua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李子</t>
+    <rPh sb="0" eb="1">
+      <t>li'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <rPh sb="0" eb="1">
+      <t>gai'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
+    <rPh sb="0" eb="1">
+      <t>chan'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橄榄岛</t>
+    <rPh sb="0" eb="1">
+      <t>gan'lan'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+    <rPh sb="0" eb="1">
+      <t>pu'tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橄榄</t>
+    <rPh sb="0" eb="1">
+      <t>gan'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔夫岛</t>
+    <rPh sb="0" eb="1">
+      <t>yu'fu'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾</t>
+    <rPh sb="0" eb="1">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾</t>
+    <rPh sb="0" eb="1">
+      <t>long'xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热带岛</t>
+    <rPh sb="0" eb="1">
+      <t>re'dai'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子</t>
+    <rPh sb="0" eb="1">
+      <t>ye'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝</t>
+    <rPh sb="0" eb="1">
+      <t>bo'luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶油</t>
+    <rPh sb="0" eb="1">
+      <t>nai'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方</t>
+    <rPh sb="0" eb="1">
+      <t>pei'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <rPh sb="0" eb="1">
+      <t>wu'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出处</t>
+    <rPh sb="0" eb="1">
+      <t>chu'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <rPh sb="0" eb="1">
+      <t>niu'nai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛场</t>
+    <rPh sb="0" eb="1">
+      <t>nai'niu'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+    <rPh sb="0" eb="1">
+      <t>ji'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂巢</t>
+    <rPh sb="0" eb="1">
+      <t>feng'chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛</t>
+    <rPh sb="0" eb="1">
+      <t>yang'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培根</t>
+    <rPh sb="0" eb="1">
+      <t>pei'gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色羽毛</t>
+    <rPh sb="0" eb="1">
+      <t>cai'se'yu'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂鸭器</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ya'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒</t>
+    <rPh sb="0" eb="1">
+      <t>yu'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶X1</t>
+    <rPh sb="0" eb="1">
+      <t>niu'nai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶酪</t>
+    <rPh sb="0" eb="1">
+      <t>nai'lao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶X2</t>
+    <rPh sb="0" eb="1">
+      <t>niu'nai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄油</t>
+    <rPh sb="0" eb="1">
+      <t>huang'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶X3</t>
+    <rPh sb="0" eb="1">
+      <t>niu'nai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸奶</t>
+    <rPh sb="0" eb="1">
+      <t>suan'nai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶X4</t>
+    <rPh sb="0" eb="1">
+      <t>niu'nai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄桃酸奶</t>
+    <rPh sb="0" eb="1">
+      <t>huang'tao'suan'nai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶X2黄桃X2</t>
+    <rPh sb="0" eb="1">
+      <t>niu'nai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huang'tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包</t>
+    <rPh sb="0" eb="1">
+      <t>mian'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烘培坊</t>
+    <rPh sb="0" eb="1">
+      <t>hong'pei'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X2</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲奇饼干</t>
+    <rPh sb="0" eb="1">
+      <t>qu'qi'bing'gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百吉饼</t>
+    <rPh sb="0" eb="1">
+      <t>bai'ji'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披萨</t>
+    <rPh sb="0" eb="1">
+      <t>pi'sa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马铃薯面包</t>
+    <rPh sb="0" eb="1">
+      <t>ma'ling'shu'mian'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉面包</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'jiao'mian'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鲜披萨</t>
+    <rPh sb="0" eb="1">
+      <t>hai'xian'pi'sa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X2鸡蛋X2</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X2糖X1鸡蛋X3</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X2奶酪X1西红柿X2</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nai'lao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi'hong'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X2土豆X2鸡蛋X4</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tu'dou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X2香蕉X3鸡蛋X2黄油X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'jiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'dan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huang'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X2奶酪X1鱼X1虾X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nai'lao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h30min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1244,8 +1860,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1526,7 +2146,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1791,12 +2411,127 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2">
+        <v>800</v>
+      </c>
+      <c r="C2">
+        <v>160</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3">
+        <v>1700</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4">
+        <v>1800</v>
+      </c>
+      <c r="C4">
+        <v>560</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5">
+        <v>15000</v>
+      </c>
+      <c r="C5">
+        <v>4950</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6">
+        <v>810</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7">
+        <v>8000</v>
+      </c>
+      <c r="C7">
+        <v>1280</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8">
+        <v>15000</v>
+      </c>
+      <c r="C8">
+        <v>1650</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1815,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1828,12 +2563,199 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3">
+        <v>15000</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4">
+        <v>8000</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5">
+        <v>15000</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6">
+        <v>35000</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7">
+        <v>140000</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2207,12 +3129,175 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="D8:D10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2220,12 +3305,204 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2246,10 +3523,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2712,12 +4002,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3488,17 +4778,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/数据.xlsx
+++ b/数据.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="265">
   <si>
     <t>物种</t>
     <rPh sb="0" eb="1">
@@ -1816,6 +1816,160 @@
   </si>
   <si>
     <t>2h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆米花</t>
+    <rPh sb="0" eb="1">
+      <t>bao'mi'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食厂</t>
+    <rPh sb="0" eb="1">
+      <t>ling'shi'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米X2</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米片</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mi'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米X3</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格兰诺拉麦片</t>
+    <rPh sb="0" eb="1">
+      <t>ge'lan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nuo'la</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mai'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X2草莓X2</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cao'mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯片</t>
+    <rPh sb="0" eb="1">
+      <t>shu'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆X2</t>
+    <rPh sb="0" eb="1">
+      <t>tu'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小菜</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橄榄X2葡萄X2奶酪X1</t>
+    <rPh sb="0" eb="1">
+      <t>gan'lan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pu'tao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nai'lao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浇糖培根</t>
+    <rPh sb="2" eb="3">
+      <t>pei'gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培根X2糖浆X1</t>
+    <rPh sb="0" eb="1">
+      <t>pei'gen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tang'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h20min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米花糖</t>
+    <rPh sb="0" eb="1">
+      <t>mi'hua'tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水稻X4糖浆X1</t>
+    <rPh sb="0" eb="1">
+      <t>shui'dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tang'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1862,10 +2016,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3152,140 +3306,140 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.66</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.33</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.66</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.33</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.6</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B11" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.6</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.3</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3305,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3500,6 +3654,104 @@
       </c>
       <c r="E14" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="337">
   <si>
     <t>物种</t>
     <rPh sb="0" eb="1">
@@ -1970,6 +1970,576 @@
   </si>
   <si>
     <t>45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X3糖X1鸡蛋X4</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布朗尼蛋糕</t>
+    <rPh sb="0" eb="1">
+      <t>bu'lang'ni'dan'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可树X2糖浆X1黄油X1</t>
+    <rPh sb="0" eb="1">
+      <t>ke'ke'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tang'jiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huang'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油酥点心</t>
+    <rPh sb="0" eb="1">
+      <t>you'su'dian'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖X1鸡蛋X5黄油X1</t>
+    <rPh sb="0" eb="1">
+      <t>tang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'dan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>huang'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜甜圈</t>
+    <rPh sb="0" eb="1">
+      <t>tian'tian'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百吉饼X1焦糖X1可可树X1</t>
+    <rPh sb="0" eb="1">
+      <t>bai'ji'bing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao'tang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke'ke'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶酪蛋糕</t>
+    <rPh sb="0" eb="1">
+      <t>nai'lao'dan'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲奇饼干X1奶酪X1糖浆X1草莓X2</t>
+    <rPh sb="0" eb="1">
+      <t>qu'qi'bing'gan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nai'lao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tang'jiang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cao'mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜姜饼</t>
+    <rPh sb="0" eb="1">
+      <t>feng'mi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiang'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X3蜂蜜X2鸡蛋X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>feng'mi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸橙派</t>
+    <rPh sb="0" eb="1">
+      <t>suan'cheng'pai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X3酸橙X2糖X1奶油X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suan'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nai'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子马卡龙</t>
+    <rPh sb="0" eb="1">
+      <t>ye'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ma'ka'long</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子X2鸡蛋X2糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>ye'zi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'dan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <rPh sb="0" eb="1">
+      <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶昔</t>
+    <rPh sb="0" eb="1">
+      <t>nai'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶X2草莓X1</t>
+    <rPh sb="0" eb="1">
+      <t>niu'nai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cao'mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝士汉堡</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shi'han'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包X2奶酪X1西红柿X1</t>
+    <rPh sb="0" eb="1">
+      <t>mian'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nai'lao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi'hong'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三明治</t>
+    <rPh sb="0" eb="1">
+      <t>san'ming'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包X1黄油X1草莓X2</t>
+    <rPh sb="0" eb="1">
+      <t>mian'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huang'you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cao'mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸薯条</t>
+    <rPh sb="0" eb="1">
+      <t>zha'shu'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆X2奶油X1西红柿X2</t>
+    <rPh sb="0" eb="1">
+      <t>tu'dou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nai'you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi'hong'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸土豆</t>
+    <rPh sb="0" eb="1">
+      <t>zha'tu'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆X2培根X1奶酪X1</t>
+    <rPh sb="0" eb="1">
+      <t>tu'dou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'gen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nai'lao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼汉堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包X2鱼X2辣椒X1</t>
+    <rPh sb="0" eb="1">
+      <t>mian'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>la'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸鱼薯条</t>
+    <rPh sb="0" eb="1">
+      <t>zha'yu'shu'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼X2土豆X2</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tu'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶树X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'jiao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料</t>
+    <rPh sb="0" eb="1">
+      <t>su'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶树X2</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'jiao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶水</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶树X3</t>
+    <rPh sb="0" eb="1">
+      <t>iang'jiao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软心糖豆</t>
+    <rPh sb="0" eb="1">
+      <t>ruan'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tang'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓X3糖浆X1</t>
+    <rPh sb="0" eb="1">
+      <t>cao'mei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tang'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太妃糖</t>
+    <rPh sb="0" eb="1">
+      <t>tai'fei'tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦糖X1黄油X1</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'tang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huang'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果杖</t>
+    <rPh sb="0" eb="1">
+      <t>tang'guo'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦糖X1奶油X1纸X1</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'tang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nai'you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力</t>
+    <rPh sb="0" eb="1">
+      <t>qiao'ke'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可树X3奶油X1糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>ke'ke'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nai'you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒棒糖</t>
+    <rPh sb="0" eb="1">
+      <t>bang'bang'tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓X2糖浆X1松树X2</t>
+    <rPh sb="0" eb="1">
+      <t>cao'mei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tang'jiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>song'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜棉花糖</t>
+    <rPh sb="0" eb="1">
+      <t>feng'mi'mian'hua'tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜焦糖X1鸡蛋X2</t>
+    <rPh sb="0" eb="1">
+      <t>feng'mi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'tang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果冻水果片</t>
+    <rPh sb="0" eb="1">
+      <t>guo'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜酱X1草莓酱X1酸橙X1</t>
+    <rPh sb="0" eb="1">
+      <t>xi'gua'jiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cao'mei'jiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>suan'cheng</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3459,19 +4029,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>195</v>
       </c>
@@ -3484,8 +4054,11 @@
       <c r="D1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -3502,7 +4075,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>213</v>
       </c>
@@ -3516,7 +4089,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -3530,7 +4103,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>218</v>
       </c>
@@ -3544,7 +4117,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>221</v>
       </c>
@@ -3558,7 +4131,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>223</v>
       </c>
@@ -3572,7 +4145,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>227</v>
       </c>
@@ -3586,7 +4159,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -3600,7 +4173,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>229</v>
       </c>
@@ -3614,7 +4187,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>230</v>
       </c>
@@ -3628,7 +4201,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -3642,7 +4215,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>232</v>
       </c>
@@ -3656,7 +4229,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>243</v>
       </c>
@@ -3752,6 +4325,356 @@
       </c>
       <c r="E22" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>287</v>
+      </c>
+      <c r="E31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>291</v>
+      </c>
+      <c r="E33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>293</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>302</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>309</v>
+      </c>
+      <c r="E39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>313</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>314</v>
+      </c>
+      <c r="E42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>315</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" t="s">
+        <v>319</v>
+      </c>
+      <c r="E45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>321</v>
+      </c>
+      <c r="E46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>324</v>
+      </c>
+      <c r="E47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" t="s">
+        <v>327</v>
+      </c>
+      <c r="E48" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>330</v>
+      </c>
+      <c r="E49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>333</v>
+      </c>
+      <c r="E50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" t="s">
+        <v>336</v>
+      </c>
+      <c r="E51" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="465">
   <si>
     <t>物种</t>
     <rPh sb="0" eb="1">
@@ -2539,6 +2539,1067 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>suan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣酱</t>
+    <rPh sb="0" eb="1">
+      <t>la'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿X3辣椒X3糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>xi'hong'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>la'jiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨西哥卷饼</t>
+    <rPh sb="0" eb="1">
+      <t>mo'xi'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>juan'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X2培根X2西红柿X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'gen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi'hong'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨西哥玉米片</t>
+    <rPh sb="0" eb="1">
+      <t>mo'xi'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'mi'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米片X1奶酪X1辣椒X2</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mi'pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nai'lao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>la'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨西哥玉米卷</t>
+    <rPh sb="0" eb="1">
+      <t>mo'xi'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'mi'juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米X3奶油X1西红柿X2辣椒X2</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nai'you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi'hong'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>la'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨西哥辣椒培根卷</t>
+    <rPh sb="0" eb="1">
+      <t>mo'xi'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>la'jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pei'gen'juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒X2培根X1奶酪X1</t>
+    <rPh sb="0" eb="1">
+      <t>la'jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'gen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nai'lao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西班牙凉菜</t>
+    <rPh sb="0" eb="1">
+      <t>xi'ban'ya'liang'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿X3辣椒X2面包X1</t>
+    <rPh sb="0" eb="1">
+      <t>xi'hong'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>la'jiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mian'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米浓汤</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mi'nong'tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米X3胡萝卜X2培根X2</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>luo'bo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pei'gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩勒酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可树X3辣椒X3</t>
+    <rPh sb="0" eb="1">
+      <t>ke'ke'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>la'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人字拖</t>
+    <rPh sb="0" eb="1">
+      <t>ren'zi'tuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动鞋</t>
+    <rPh sb="0" eb="1">
+      <t>yun'dong'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶X1棉布X1胶水X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian'bu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴子</t>
+    <rPh sb="0" eb="1">
+      <t>xue'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶X1丝绸X1胶水X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si'chou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高跟鞋</t>
+    <rPh sb="0" eb="1">
+      <t>gao'gen'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶X1松树X1丝绸X1胶水X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>song'shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>si'chou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiao'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒X2丝绸X1羊毛X1</t>
+    <rPh sb="0" eb="1">
+      <t>yu'rong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si'chou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yang'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香薰蜡烛</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'xun'la'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香水厂</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'shui'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜X2可可树X2焦糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>feng'mi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'ke'shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiao'tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香水</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰X3草莓X2香蕉X2</t>
+    <rPh sb="0" eb="1">
+      <t>mei'gui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cao'mei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气清新剂</t>
+    <rPh sb="0" eb="1">
+      <t>kong'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qing'xin'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茉莉X2玫瑰X2</t>
+    <rPh sb="0" eb="1">
+      <t>mo'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mei'gui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香皂</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜X3橄榄X2</t>
+    <rPh sb="0" eb="1">
+      <t>feng'mi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gan'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茉莉精油</t>
+    <rPh sb="0" eb="1">
+      <t>mo'li'jing'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茉莉X3橄榄X2</t>
+    <rPh sb="0" eb="1">
+      <t>mo'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gan'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳液</t>
+    <rPh sb="0" eb="1">
+      <t>ru'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰X2椰子X2</t>
+    <rPh sb="0" eb="1">
+      <t>mei'gui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h50min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h10min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热狗</t>
+    <rPh sb="0" eb="1">
+      <t>re'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热狗厂</t>
+    <rPh sb="0" eb="1">
+      <t>re'gou'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包X2培根X1西红柿X1</t>
+    <rPh sb="0" eb="1">
+      <t>mian'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'gen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi'hong'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米热狗</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mi're'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米X4培根X2橄榄X2</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'gen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gan'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h35min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科尼热狗</t>
+    <rPh sb="0" eb="1">
+      <t>ke'ni</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>re'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包X1培根X2奶酪X1辣椒X1</t>
+    <rPh sb="0" eb="1">
+      <t>mia'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'gen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nai'lao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>la'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓咖啡</t>
+    <rPh sb="0" eb="1">
+      <t>nong'ka'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡树X3糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>ka'fei'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡布奇诺</t>
+    <rPh sb="0" eb="1">
+      <t>ka'bu'qi'nuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡树X2牛奶X2糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>ka'fei'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>niu'nai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩卡</t>
+    <rPh sb="0" eb="1">
+      <t>mo'ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡树X2可可树X2奶油X1</t>
+    <rPh sb="0" eb="1">
+      <t>ka'fei'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'ke'shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>nai'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热巧克力</t>
+    <rPh sb="0" eb="1">
+      <t>re'qiao'ke'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可树X2牛奶X2糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>ke'ke'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>niu'nai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木偶</t>
+    <rPh sb="0" eb="1">
+      <t>mu'ou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩偶厂</t>
+    <rPh sb="0" eb="1">
+      <t>wan'ou'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松树X1棉布X1纱线织品X1</t>
+    <rPh sb="0" eb="1">
+      <t>song'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h5min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶瓷娃娃</t>
+    <rPh sb="0" eb="1">
+      <t>tao'ci'wa'wa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏土X3丝绸X1</t>
+    <rPh sb="0" eb="1">
+      <t>nian'tu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si'chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h10min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时尚洋娃娃</t>
+    <rPh sb="0" eb="1">
+      <t>shi'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yang'wa'wa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料X1棉布X2胶水X1</t>
+    <rPh sb="0" eb="1">
+      <t>su'liao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian'bu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布娃娃</t>
+    <rPh sb="0" eb="1">
+      <t>bu'wa'wa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸X1棉布X1棉花X2</t>
+    <rPh sb="0" eb="1">
+      <t>si'chou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian'bu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mian'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯子</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏土X2</t>
+    <rPh sb="0" eb="1">
+      <t>nian'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h10min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平底锅</t>
+    <rPh sb="0" eb="1">
+      <t>ping'di'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜X4松树X1</t>
+    <rPh sb="0" eb="1">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>song'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h50min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶壶</t>
+    <rPh sb="0" eb="1">
+      <t>cha'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏土X3</t>
+    <rPh sb="0" eb="1">
+      <t>nian'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀叉餐具</t>
+    <rPh sb="0" eb="1">
+      <t>dao'cha'can'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银X7</t>
+    <rPh sb="0" eb="1">
+      <t>yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖</t>
+    <rPh sb="0" eb="1">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘蔗X1</t>
+    <rPh sb="0" eb="1">
+      <t>gan'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖浆</t>
+    <rPh sb="0" eb="1">
+      <t>tang'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘蔗X2</t>
+    <rPh sb="0" eb="1">
+      <t>gan'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦糖</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘蔗X3</t>
+    <rPh sb="0" eb="1">
+      <t>gan'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜焦糖</t>
+    <rPh sb="0" eb="1">
+      <t>feng'mi'jiao'tang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜X1甘蔗X1</t>
+    <rPh sb="0" eb="1">
+      <t>feng'mi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gan'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉布</t>
+    <rPh sb="0" eb="1">
+      <t>mian'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉花X2</t>
+    <rPh sb="0" eb="1">
+      <t>mian'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱线织品</t>
+    <rPh sb="0" eb="1">
+      <t>sha'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛X2</t>
+    <rPh sb="0" eb="1">
+      <t>yang'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸</t>
+    <rPh sb="0" eb="1">
+      <t>si'chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸树X2</t>
+    <rPh sb="0" eb="1">
+      <t>si'chou'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸</t>
+    <rPh sb="0" eb="1">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松树X1</t>
+    <rPh sb="0" eb="1">
+      <t>song'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸巾</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松树X2</t>
+    <rPh sb="0" eb="1">
+      <t>song'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙纸</t>
+    <rPh sb="0" eb="1">
+      <t>qiang'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松树X2橡胶X1</t>
+    <rPh sb="0" eb="1">
+      <t>song'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸X4棉布X1胶水X1</t>
+    <rPh sb="0" eb="1">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mian'bu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衬衫</t>
+    <rPh sb="0" eb="1">
+      <t>chen'shan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉布X1</t>
+    <rPh sb="0" eb="1">
+      <t>mian'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛衣</t>
+    <rPh sb="0" eb="1">
+      <t>mao'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱线织品X1</t>
+    <rPh sb="0" eb="1">
+      <t>sha'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外套</t>
+    <rPh sb="0" eb="1">
+      <t>wai'tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉布X1纱线织品X1</t>
+    <rPh sb="0" eb="1">
+      <t>mian'bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sha'xian'zhi'pn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帽子</t>
+    <rPh sb="0" eb="1">
+      <t>mao'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉布X1丝绸X1</t>
+    <rPh sb="0" eb="1">
+      <t>mian'bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si'chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裙装</t>
+    <rPh sb="0" eb="1">
+      <t>qun'zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱线织品X1丝绸X1</t>
+    <rPh sb="0" eb="1">
+      <t>sha'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'pin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>si'chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西服</t>
+    <rPh sb="0" eb="1">
+      <t>xi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱线织品X1棉布X1丝绸X1</t>
+    <rPh sb="0" eb="1">
+      <t>sha'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'pin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mian'bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>si'chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窄边登山帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉布X1丝绸X1彩色羽毛X1</t>
+    <rPh sb="0" eb="1">
+      <t>mian'bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si'chou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cai'se'yu'mao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4029,15 +5090,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B51"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108:B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4675,6 +5737,734 @@
       </c>
       <c r="E51" t="s">
         <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>337</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>338</v>
+      </c>
+      <c r="E53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>341</v>
+      </c>
+      <c r="E54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>344</v>
+      </c>
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" t="s">
+        <v>345</v>
+      </c>
+      <c r="E55" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>350</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>351</v>
+      </c>
+      <c r="E58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>352</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="s">
+        <v>353</v>
+      </c>
+      <c r="E59" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>356</v>
+      </c>
+      <c r="E60" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>358</v>
+      </c>
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" t="s">
+        <v>359</v>
+      </c>
+      <c r="E62" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" t="s">
+        <v>361</v>
+      </c>
+      <c r="E63" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>362</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s">
+        <v>363</v>
+      </c>
+      <c r="E64" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>364</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" t="s">
+        <v>365</v>
+      </c>
+      <c r="E65" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" t="s">
+        <v>367</v>
+      </c>
+      <c r="E66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>369</v>
+      </c>
+      <c r="B68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D68" t="s">
+        <v>371</v>
+      </c>
+      <c r="E68" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69" t="s">
+        <v>370</v>
+      </c>
+      <c r="D69" t="s">
+        <v>373</v>
+      </c>
+      <c r="E69" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70" t="s">
+        <v>370</v>
+      </c>
+      <c r="D70" t="s">
+        <v>376</v>
+      </c>
+      <c r="E70" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>377</v>
+      </c>
+      <c r="B71" t="s">
+        <v>370</v>
+      </c>
+      <c r="D71" t="s">
+        <v>378</v>
+      </c>
+      <c r="E71" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>379</v>
+      </c>
+      <c r="B72" t="s">
+        <v>370</v>
+      </c>
+      <c r="D72" t="s">
+        <v>380</v>
+      </c>
+      <c r="E72" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>382</v>
+      </c>
+      <c r="B73" t="s">
+        <v>370</v>
+      </c>
+      <c r="D73" t="s">
+        <v>383</v>
+      </c>
+      <c r="E73" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>386</v>
+      </c>
+      <c r="B75" t="s">
+        <v>387</v>
+      </c>
+      <c r="D75" t="s">
+        <v>388</v>
+      </c>
+      <c r="E75" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>390</v>
+      </c>
+      <c r="B76" t="s">
+        <v>387</v>
+      </c>
+      <c r="D76" t="s">
+        <v>391</v>
+      </c>
+      <c r="E76" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>393</v>
+      </c>
+      <c r="B77" t="s">
+        <v>387</v>
+      </c>
+      <c r="D77" t="s">
+        <v>394</v>
+      </c>
+      <c r="E77" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>395</v>
+      </c>
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" t="s">
+        <v>396</v>
+      </c>
+      <c r="E79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>397</v>
+      </c>
+      <c r="B80" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" t="s">
+        <v>398</v>
+      </c>
+      <c r="E80" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>399</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+      <c r="D81" t="s">
+        <v>400</v>
+      </c>
+      <c r="E81" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>402</v>
+      </c>
+      <c r="B82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" t="s">
+        <v>403</v>
+      </c>
+      <c r="E82" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>404</v>
+      </c>
+      <c r="B84" t="s">
+        <v>405</v>
+      </c>
+      <c r="D84" t="s">
+        <v>406</v>
+      </c>
+      <c r="E84" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>408</v>
+      </c>
+      <c r="B85" t="s">
+        <v>405</v>
+      </c>
+      <c r="D85" t="s">
+        <v>409</v>
+      </c>
+      <c r="E85" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>411</v>
+      </c>
+      <c r="B86" t="s">
+        <v>405</v>
+      </c>
+      <c r="D86" t="s">
+        <v>412</v>
+      </c>
+      <c r="E86" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>414</v>
+      </c>
+      <c r="B87" t="s">
+        <v>405</v>
+      </c>
+      <c r="D87" t="s">
+        <v>415</v>
+      </c>
+      <c r="E87" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>417</v>
+      </c>
+      <c r="B89" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" t="s">
+        <v>418</v>
+      </c>
+      <c r="E89" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>420</v>
+      </c>
+      <c r="B90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" t="s">
+        <v>421</v>
+      </c>
+      <c r="E90" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>423</v>
+      </c>
+      <c r="B91" t="s">
+        <v>152</v>
+      </c>
+      <c r="D91" t="s">
+        <v>424</v>
+      </c>
+      <c r="E91" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>426</v>
+      </c>
+      <c r="B92" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" t="s">
+        <v>427</v>
+      </c>
+      <c r="E92" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>428</v>
+      </c>
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" t="s">
+        <v>429</v>
+      </c>
+      <c r="E94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>430</v>
+      </c>
+      <c r="B95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" t="s">
+        <v>431</v>
+      </c>
+      <c r="E95" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>432</v>
+      </c>
+      <c r="B96" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" t="s">
+        <v>433</v>
+      </c>
+      <c r="E96" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>434</v>
+      </c>
+      <c r="B97" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" t="s">
+        <v>435</v>
+      </c>
+      <c r="E97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>436</v>
+      </c>
+      <c r="B99" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" t="s">
+        <v>437</v>
+      </c>
+      <c r="E99" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>438</v>
+      </c>
+      <c r="B100" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" t="s">
+        <v>439</v>
+      </c>
+      <c r="E100" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>440</v>
+      </c>
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" t="s">
+        <v>441</v>
+      </c>
+      <c r="E101" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>442</v>
+      </c>
+      <c r="B103" t="s">
+        <v>133</v>
+      </c>
+      <c r="D103" t="s">
+        <v>443</v>
+      </c>
+      <c r="E103" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>444</v>
+      </c>
+      <c r="B104" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" t="s">
+        <v>445</v>
+      </c>
+      <c r="E104" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>446</v>
+      </c>
+      <c r="B105" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" t="s">
+        <v>447</v>
+      </c>
+      <c r="E105" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>448</v>
+      </c>
+      <c r="B106" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" t="s">
+        <v>449</v>
+      </c>
+      <c r="E106" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>451</v>
+      </c>
+      <c r="B108" t="s">
+        <v>130</v>
+      </c>
+      <c r="D108" t="s">
+        <v>452</v>
+      </c>
+      <c r="E108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>453</v>
+      </c>
+      <c r="B109" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" t="s">
+        <v>454</v>
+      </c>
+      <c r="E109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>455</v>
+      </c>
+      <c r="B110" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110" t="s">
+        <v>456</v>
+      </c>
+      <c r="E110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>457</v>
+      </c>
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" t="s">
+        <v>458</v>
+      </c>
+      <c r="E111" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>459</v>
+      </c>
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" t="s">
+        <v>460</v>
+      </c>
+      <c r="E112" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>461</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" t="s">
+        <v>462</v>
+      </c>
+      <c r="E113" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>463</v>
+      </c>
+      <c r="B114" t="s">
+        <v>130</v>
+      </c>
+      <c r="D114" t="s">
+        <v>464</v>
+      </c>
+      <c r="E114" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="597">
   <si>
     <t>物种</t>
     <rPh sb="0" eb="1">
@@ -3600,6 +3600,1122 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>cai'se'yu'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰激凌</t>
+    <rPh sb="0" eb="1">
+      <t>bing'qi'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰激凌厂</t>
+    <rPh sb="0" eb="1">
+      <t>bing'ji'ling'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶X1奶油X1糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>niu'nai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nai'you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰棍</t>
+    <rPh sb="0" eb="1">
+      <t>bing'gun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓X2糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>cao'm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻酸奶</t>
+    <rPh sb="0" eb="1">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>suan'nai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸奶X1奶油X1</t>
+    <rPh sb="0" eb="1">
+      <t>suan'nai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nai'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱基斯摩雪糕</t>
+    <rPh sb="0" eb="1">
+      <t>ai'j'si'mo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xue'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖浆X1可可树X1松树X1</t>
+    <rPh sb="0" eb="1">
+      <t>tang'jiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'ke'shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>song'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝雪葩</t>
+    <rPh sb="0" eb="1">
+      <t>bo'luo'xue'pa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖浆X1菠萝X2</t>
+    <rPh sb="0" eb="1">
+      <t>tang'jiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bo'luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰冰冻果子露</t>
+    <rPh sb="0" eb="1">
+      <t>mei'gui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo'zi'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖浆X1玫瑰X2牛奶X1</t>
+    <rPh sb="0" eb="1">
+      <t>tang'jiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mei'gui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>niu'nai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓酱</t>
+    <rPh sb="0" eb="1">
+      <t>cao'mei'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓X3</t>
+    <rPh sb="0" eb="1">
+      <t>cao'mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄桃果酱</t>
+    <rPh sb="0" eb="1">
+      <t>huang'tao'guo'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄桃X3</t>
+    <rPh sb="0" eb="1">
+      <t>huang'tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜酱</t>
+    <rPh sb="0" eb="1">
+      <t>xi'gua'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜X3</t>
+    <rPh sb="0" eb="1">
+      <t>xi'gua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李子酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李子X3</t>
+    <rPh sb="0" eb="1">
+      <t>li'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄果冻</t>
+    <rPh sb="0" eb="1">
+      <t>pu'tao'guo'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄X3</t>
+    <rPh sb="0" eb="1">
+      <t>pu'tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰果酱</t>
+    <rPh sb="0" eb="1">
+      <t>mei'gui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰X3</t>
+    <rPh sb="0" eb="1">
+      <t>mei'gui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料瓶</t>
+    <rPh sb="0" eb="1">
+      <t>su'liao'ping</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料X1</t>
+    <rPh sb="0" eb="1">
+      <t>su'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具</t>
+    <rPh sb="0" eb="1">
+      <t>wan'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料X1橡胶X1</t>
+    <rPh sb="0" eb="1">
+      <t>su'liao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球</t>
+    <rPh sb="0" eb="1">
+      <t>qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料X1胶水X1</t>
+    <rPh sb="0" eb="1">
+      <t>su'liao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充气艇</t>
+    <rPh sb="0" eb="1">
+      <t>chong'qi'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶X2胶水X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽毛球</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mao'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒X2塑料X1</t>
+    <rPh sb="0" eb="1">
+      <t>yu'rong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>su'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型黏土</t>
+    <rPh sb="0" eb="1">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏土X2橡胶树X2</t>
+    <rPh sb="0" eb="1">
+      <t>nian'tu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'jiao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌子</t>
+    <rPh sb="0" eb="1">
+      <t>zhuo'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松树X3</t>
+    <rPh sb="0" eb="1">
+      <t>song'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <rPh sb="0" eb="1">
+      <t>yi'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躺椅</t>
+    <rPh sb="0" eb="1">
+      <t>tang'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松树X2棉布X1</t>
+    <rPh sb="0" eb="1">
+      <t>song'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <rPh sb="0" eb="1">
+      <t>chuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松树X2棉布X1丝绸X1</t>
+    <rPh sb="0" eb="1">
+      <t>song'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian'bu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>si'chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地灯</t>
+    <rPh sb="0" eb="1">
+      <t>luo'di'deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜X5塑料X1</t>
+    <rPh sb="0" eb="1">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>su'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿司卷</t>
+    <rPh sb="0" eb="1">
+      <t>shou'si'juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水稻X5鱼X1</t>
+    <rPh sb="0" eb="1">
+      <t>shui'dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾卷寿司</t>
+    <rPh sb="0" eb="1">
+      <t>long'xia'juan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰奶汤</t>
+    <rPh sb="0" eb="1">
+      <t>ye'nai'tang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾X1水稻X4</t>
+    <rPh sb="0" eb="1">
+      <t>long</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shui'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子X1虾X2酸橙X1</t>
+    <rPh sb="0" eb="1">
+      <t>ye'zi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>suan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米线</t>
+    <rPh sb="0" eb="1">
+      <t>mi'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水稻X6玉米X3辣椒X1虾X1</t>
+    <rPh sb="0" eb="1">
+      <t>shui'dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'mi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>la'jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鲜沙拉</t>
+    <rPh sb="0" eb="1">
+      <t>hai'xian'sha'la</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼X1虾X1玉米X2奶酪X1</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu'mi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>nai'lao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳蛋饼</t>
+    <rPh sb="0" eb="1">
+      <t>ru'dan'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦X2培根X2鸡蛋X1</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'gen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤龙虾</t>
+    <rPh sb="0" eb="1">
+      <t>kao'long'xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾X1奶油X1</t>
+    <rPh sb="0" eb="1">
+      <t>long'xia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nai'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熏肉蛋</t>
+    <rPh sb="0" eb="1">
+      <t>xun'rou'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培根X2鸡蛋X2</t>
+    <rPh sb="0" eb="1">
+      <t>pei'gen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸鱼</t>
+    <rPh sb="0" eb="1">
+      <t>zha'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼X1黄油X1</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huang'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煲仔饭</t>
+    <rPh sb="0" eb="1">
+      <t>bao'zai'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水稻X5培根X2鸡蛋X2奶酪X1</t>
+    <rPh sb="0" eb="1">
+      <t>shui'dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'gen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'dan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nai'lao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜华夫饼</t>
+    <rPh sb="0" eb="1">
+      <t>feng'mi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua'fu'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋X3蜂蜜X1糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>ji'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>feng'mi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾握寿司</t>
+    <rPh sb="0" eb="1">
+      <t>long'xia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wo'shou'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾X1鸡蛋X2面包X1</t>
+    <rPh sb="0" eb="1">
+      <t>long'xia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'dan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mian'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维他命鸡尾酒</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ta'ming'ji'wei'jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜X1西红柿X1辣椒X1</t>
+    <rPh sb="0" eb="1">
+      <t>hu'luo'bo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi'hong'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>la'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄气泡饮料</t>
+    <rPh sb="0" eb="1">
+      <t>pu'tao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'pao'yin'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄X2鸡蛋X1糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>pu'tao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'dan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力冰沙</t>
+    <rPh sb="0" eb="1">
+      <t>qiao'ke'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bing'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶X2巧克力X1香蕉X2</t>
+    <rPh sb="0" eb="1">
+      <t>niu'nai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qiao'ke'li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiang'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜榨西瓜汁</t>
+    <rPh sb="0" eb="1">
+      <t>xian'zha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi'gua'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜X2糖X1</t>
+    <rPh sb="0" eb="1">
+      <t>xi'gua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰茶</t>
+    <rPh sb="0" eb="1">
+      <t>bing'cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茉莉X3酸橙X1</t>
+    <rPh sb="0" eb="1">
+      <t>mo'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h40min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热带混合果饮</t>
+    <rPh sb="0" eb="1">
+      <t>re'dai'hun'he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo'yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子X2菠萝X2甘蔗X3</t>
+    <rPh sb="0" eb="1">
+      <t>ye'zi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bo'luo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gan'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枕头</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒工厂</t>
+    <rPh sb="0" eb="1">
+      <t>yu'rong'gong'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒X2棉布X1</t>
+    <rPh sb="0" eb="1">
+      <t>yu'rong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大衣</t>
+    <rPh sb="0" eb="1">
+      <t>da'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒X3丝绸X1</t>
+    <rPh sb="0" eb="1">
+      <t>yu'rong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si'chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被子</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒X5棉布X2</t>
+    <rPh sb="0" eb="1">
+      <t>yu'rong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏威夷小吉他</t>
+    <rPh sb="0" eb="1">
+      <t>xia'wei'yi'xiao'ji'ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松树X3铜X3</t>
+    <rPh sb="0" eb="1">
+      <t>song'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨克斯管</t>
+    <rPh sb="0" eb="1">
+      <t>sa'ke'si'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料X1铜X6甘蔗X1</t>
+    <rPh sb="0" eb="1">
+      <t>su'liao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gan'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓</t>
+    <rPh sb="0" eb="1">
+      <t>gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松树X3棉布X2丝绸X1</t>
+    <rPh sb="0" eb="1">
+      <t>song'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian'bu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>si'chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手风琴</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng'qin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料X2丝绸X2</t>
+    <rPh sb="0" eb="1">
+      <t>su'liao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si'chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排箫</t>
+    <rPh sb="0" eb="1">
+      <t>pai'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘蔗X5彩色羽毛X1</t>
+    <rPh sb="0" eb="1">
+      <t>gan'zhe</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai'se</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏日花束</t>
+    <rPh sb="0" eb="1">
+      <t>xia'ri</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花束工厂</t>
+    <rPh sb="0" eb="1">
+      <t>hua'shu'gong'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰X3小麦X5纸X1</t>
+    <rPh sb="0" eb="1">
+      <t>mei'gui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'mai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜疏花束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米X1西红柿X3胡萝卜X2甘蔗X4</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi'hong'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hu'luo'bo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gan'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚庆花束</t>
+    <rPh sb="0" eb="1">
+      <t>hun'qing'hua'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茉莉X2棉花X3丝绸X1</t>
+    <rPh sb="0" eb="1">
+      <t>mo'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>si'chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果花束</t>
+    <rPh sb="0" eb="1">
+      <t>tang'guo'hua'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓X3糖果杖X1蜂蜜姜饼X1</t>
+    <rPh sb="0" eb="1">
+      <t>cao'mei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tang'guo'zhang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>feng'mi'jiang'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花篮</t>
+    <rPh sb="0" eb="1">
+      <t>hua'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰X3茉莉X4松树X1</t>
+    <rPh sb="0" eb="1">
+      <t>mei'gui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>song'shu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5090,10 +6206,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108:B114"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6465,6 +7581,762 @@
       </c>
       <c r="E114" t="s">
         <v>425</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>465</v>
+      </c>
+      <c r="B116" t="s">
+        <v>466</v>
+      </c>
+      <c r="D116" t="s">
+        <v>467</v>
+      </c>
+      <c r="E116" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>468</v>
+      </c>
+      <c r="B117" t="s">
+        <v>466</v>
+      </c>
+      <c r="D117" t="s">
+        <v>469</v>
+      </c>
+      <c r="E117" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>471</v>
+      </c>
+      <c r="B118" t="s">
+        <v>466</v>
+      </c>
+      <c r="D118" t="s">
+        <v>472</v>
+      </c>
+      <c r="E118" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>473</v>
+      </c>
+      <c r="B119" t="s">
+        <v>466</v>
+      </c>
+      <c r="D119" t="s">
+        <v>474</v>
+      </c>
+      <c r="E119" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B120" t="s">
+        <v>466</v>
+      </c>
+      <c r="D120" t="s">
+        <v>476</v>
+      </c>
+      <c r="E120" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>477</v>
+      </c>
+      <c r="B121" t="s">
+        <v>466</v>
+      </c>
+      <c r="D121" t="s">
+        <v>478</v>
+      </c>
+      <c r="E121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>479</v>
+      </c>
+      <c r="B123" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123" t="s">
+        <v>480</v>
+      </c>
+      <c r="E123" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>482</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="D124" t="s">
+        <v>483</v>
+      </c>
+      <c r="E124" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>484</v>
+      </c>
+      <c r="B125" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" t="s">
+        <v>485</v>
+      </c>
+      <c r="E125" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>486</v>
+      </c>
+      <c r="B126" t="s">
+        <v>136</v>
+      </c>
+      <c r="D126" t="s">
+        <v>487</v>
+      </c>
+      <c r="E126" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>489</v>
+      </c>
+      <c r="B127" t="s">
+        <v>136</v>
+      </c>
+      <c r="D127" t="s">
+        <v>490</v>
+      </c>
+      <c r="E127" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>492</v>
+      </c>
+      <c r="B128" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" t="s">
+        <v>493</v>
+      </c>
+      <c r="E128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>494</v>
+      </c>
+      <c r="B130" t="s">
+        <v>138</v>
+      </c>
+      <c r="D130" t="s">
+        <v>495</v>
+      </c>
+      <c r="E130" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>497</v>
+      </c>
+      <c r="B131" t="s">
+        <v>138</v>
+      </c>
+      <c r="D131" t="s">
+        <v>498</v>
+      </c>
+      <c r="E131" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>499</v>
+      </c>
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+      <c r="D132" t="s">
+        <v>500</v>
+      </c>
+      <c r="E132" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>501</v>
+      </c>
+      <c r="B133" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" t="s">
+        <v>502</v>
+      </c>
+      <c r="E133" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>503</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="D134" t="s">
+        <v>504</v>
+      </c>
+      <c r="E134" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>505</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" t="s">
+        <v>506</v>
+      </c>
+      <c r="E135" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>507</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="D137" t="s">
+        <v>508</v>
+      </c>
+      <c r="E137" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>510</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" t="s">
+        <v>495</v>
+      </c>
+      <c r="E138" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>511</v>
+      </c>
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139" t="s">
+        <v>512</v>
+      </c>
+      <c r="E139" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>513</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" t="s">
+        <v>514</v>
+      </c>
+      <c r="E140" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>517</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="D141" t="s">
+        <v>518</v>
+      </c>
+      <c r="E141" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>519</v>
+      </c>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" t="s">
+        <v>520</v>
+      </c>
+      <c r="E143" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>521</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144" t="s">
+        <v>524</v>
+      </c>
+      <c r="E144" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>523</v>
+      </c>
+      <c r="B145" t="s">
+        <v>144</v>
+      </c>
+      <c r="D145" t="s">
+        <v>525</v>
+      </c>
+      <c r="E145" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>527</v>
+      </c>
+      <c r="B146" t="s">
+        <v>144</v>
+      </c>
+      <c r="D146" t="s">
+        <v>528</v>
+      </c>
+      <c r="E146" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>530</v>
+      </c>
+      <c r="B147" t="s">
+        <v>144</v>
+      </c>
+      <c r="D147" t="s">
+        <v>531</v>
+      </c>
+      <c r="E147" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>532</v>
+      </c>
+      <c r="B149" t="s">
+        <v>145</v>
+      </c>
+      <c r="D149" t="s">
+        <v>533</v>
+      </c>
+      <c r="E149" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>534</v>
+      </c>
+      <c r="B150" t="s">
+        <v>145</v>
+      </c>
+      <c r="D150" t="s">
+        <v>535</v>
+      </c>
+      <c r="E150" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>536</v>
+      </c>
+      <c r="B151" t="s">
+        <v>145</v>
+      </c>
+      <c r="D151" t="s">
+        <v>537</v>
+      </c>
+      <c r="E151" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>538</v>
+      </c>
+      <c r="B152" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152" t="s">
+        <v>539</v>
+      </c>
+      <c r="E152" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>540</v>
+      </c>
+      <c r="B153" t="s">
+        <v>145</v>
+      </c>
+      <c r="D153" t="s">
+        <v>541</v>
+      </c>
+      <c r="E153" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>543</v>
+      </c>
+      <c r="B154" t="s">
+        <v>145</v>
+      </c>
+      <c r="D154" t="s">
+        <v>544</v>
+      </c>
+      <c r="E154" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>545</v>
+      </c>
+      <c r="B155" t="s">
+        <v>145</v>
+      </c>
+      <c r="D155" t="s">
+        <v>546</v>
+      </c>
+      <c r="E155" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>547</v>
+      </c>
+      <c r="B157" t="s">
+        <v>147</v>
+      </c>
+      <c r="D157" t="s">
+        <v>548</v>
+      </c>
+      <c r="E157" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>550</v>
+      </c>
+      <c r="B158" t="s">
+        <v>147</v>
+      </c>
+      <c r="D158" t="s">
+        <v>551</v>
+      </c>
+      <c r="E158" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>553</v>
+      </c>
+      <c r="B159" t="s">
+        <v>147</v>
+      </c>
+      <c r="D159" t="s">
+        <v>554</v>
+      </c>
+      <c r="E159" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>556</v>
+      </c>
+      <c r="B160" t="s">
+        <v>147</v>
+      </c>
+      <c r="D160" t="s">
+        <v>557</v>
+      </c>
+      <c r="E160" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>559</v>
+      </c>
+      <c r="B161" t="s">
+        <v>147</v>
+      </c>
+      <c r="D161" t="s">
+        <v>560</v>
+      </c>
+      <c r="E161" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>562</v>
+      </c>
+      <c r="B162" t="s">
+        <v>147</v>
+      </c>
+      <c r="D162" t="s">
+        <v>563</v>
+      </c>
+      <c r="E162" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>564</v>
+      </c>
+      <c r="B164" t="s">
+        <v>565</v>
+      </c>
+      <c r="D164" t="s">
+        <v>566</v>
+      </c>
+      <c r="E164" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>568</v>
+      </c>
+      <c r="B165" t="s">
+        <v>565</v>
+      </c>
+      <c r="D165" t="s">
+        <v>569</v>
+      </c>
+      <c r="E165" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>570</v>
+      </c>
+      <c r="B166" t="s">
+        <v>565</v>
+      </c>
+      <c r="D166" t="s">
+        <v>571</v>
+      </c>
+      <c r="E166" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>572</v>
+      </c>
+      <c r="B168" t="s">
+        <v>153</v>
+      </c>
+      <c r="D168" t="s">
+        <v>573</v>
+      </c>
+      <c r="E168" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>575</v>
+      </c>
+      <c r="B169" t="s">
+        <v>153</v>
+      </c>
+      <c r="D169" t="s">
+        <v>576</v>
+      </c>
+      <c r="E169" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>577</v>
+      </c>
+      <c r="B170" t="s">
+        <v>153</v>
+      </c>
+      <c r="D170" t="s">
+        <v>578</v>
+      </c>
+      <c r="E170" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>579</v>
+      </c>
+      <c r="B171" t="s">
+        <v>153</v>
+      </c>
+      <c r="D171" t="s">
+        <v>580</v>
+      </c>
+      <c r="E171" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>582</v>
+      </c>
+      <c r="B172" t="s">
+        <v>153</v>
+      </c>
+      <c r="D172" t="s">
+        <v>583</v>
+      </c>
+      <c r="E172" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>584</v>
+      </c>
+      <c r="B174" t="s">
+        <v>585</v>
+      </c>
+      <c r="D174" t="s">
+        <v>586</v>
+      </c>
+      <c r="E174" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>588</v>
+      </c>
+      <c r="B175" t="s">
+        <v>585</v>
+      </c>
+      <c r="D175" t="s">
+        <v>589</v>
+      </c>
+      <c r="E175" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>591</v>
+      </c>
+      <c r="B176" t="s">
+        <v>585</v>
+      </c>
+      <c r="D176" t="s">
+        <v>592</v>
+      </c>
+      <c r="E176" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>593</v>
+      </c>
+      <c r="B177" t="s">
+        <v>585</v>
+      </c>
+      <c r="D177" t="s">
+        <v>594</v>
+      </c>
+      <c r="E177" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>595</v>
+      </c>
+      <c r="B178" t="s">
+        <v>585</v>
+      </c>
+      <c r="D178" t="s">
+        <v>596</v>
+      </c>
+      <c r="E178" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
